--- a/report/reliability/comb/Instituto de Ciências Biológicas e da Saúde - ICBS-Graduação (licenciatura)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Biológicas e da Saúde - ICBS-Graduação (licenciatura)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8499636103469969</v>
+        <v>0.8120944527633621</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8615065479253791</v>
+        <v>0.8411121448754098</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9340622297695933</v>
+        <v>0.9344412191483317</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3414032646084757</v>
+        <v>0.28937467934104094</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>6.220557975991498</v>
+        <v>5.2937472421404435</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03245232234491933</v>
+        <v>0.037535959163315355</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5716666666666668</v>
+        <v>1.9446153846153846</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8302681723968697</v>
+        <v>0.6862705548715885</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2681643935098361</v>
+        <v>0.23494115078947256</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.832327201634253</v>
+        <v>0.8129417021027552</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8438942179100847</v>
+        <v>0.8382799637252707</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9202598633002356</v>
+        <v>0.9304206020438456</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.329510021610447</v>
+        <v>0.3016567023727215</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>5.405912622916233</v>
+        <v>5.183525696848128</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03635605889859287</v>
+        <v>0.038438441606762706</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03704364680696943</v>
+        <v>0.04931810857498858</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.26241361212799513</v>
+        <v>0.2371271854360037</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8273886836871374</v>
+        <v>0.7907090464547677</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.84097426360647</v>
+        <v>0.8230104663737315</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9198223699378267</v>
+        <v>0.9222518069665308</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3246682261444487</v>
+        <v>0.27928151343243524</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>5.2882903275817466</v>
+        <v>4.650051613286935</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03766944969344395</v>
+        <v>0.041591537967953104</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.040317117592510526</v>
+        <v>0.04954224689264941</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.26241361212799513</v>
+        <v>0.22692393516836723</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.831117401498256</v>
+        <v>0.7835728407189941</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8394180288175495</v>
+        <v>0.8171393933927685</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9208794560968017</v>
+        <v>0.9227860654845408</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.32213204352108377</v>
+        <v>0.27134266528863604</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>5.227349139112365</v>
+        <v>4.46864641080357</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03665758015334408</v>
+        <v>0.04337787275790466</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.038953698248259304</v>
+        <v>0.051749754534925405</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2613915274239827</v>
+        <v>0.2189770667659538</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8305793321688304</v>
+        <v>0.8066239269294032</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8419748315186966</v>
+        <v>0.8284715998114017</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9227920365616394</v>
+        <v>0.9198720220766233</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.32631500115838724</v>
+        <v>0.286984910836613</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>5.328105893576775</v>
+        <v>4.8299383594814875</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03684028383730913</v>
+        <v>0.03934855597874538</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.040759312522672835</v>
+        <v>0.042471914283283695</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2613915274239827</v>
+        <v>0.23514958975358877</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8442590859609251</v>
+        <v>0.7955400988204593</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8583618255099216</v>
+        <v>0.8276557266565795</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9083552419810518</v>
+        <v>0.9214193501200335</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.355226084339238</v>
+        <v>0.2858137441460442</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>6.060243494383982</v>
+        <v>4.802339588083426</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03344038126174448</v>
+        <v>0.04015132120136843</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03574960540631643</v>
+        <v>0.041935400255807054</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3402820769762858</v>
+        <v>0.23571176161702276</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8447391270790724</v>
+        <v>0.7957540659371931</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8579343629500278</v>
+        <v>0.8271132452264514</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9090204715727723</v>
+        <v>0.9215479858776588</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3544222027568971</v>
+        <v>0.2850390346664702</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>6.038999864888119</v>
+        <v>4.784133095157148</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03329882125827651</v>
+        <v>0.040080745568069925</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.036256304545175685</v>
+        <v>0.041925170229408275</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3402820769762858</v>
+        <v>0.23571176161702276</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8444441291238028</v>
+        <v>0.8113067271654236</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8592112702562705</v>
+        <v>0.8360043116740221</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9295730123419181</v>
+        <v>0.9328107443542728</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3568320125160033</v>
+        <v>0.2981520872163773</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>6.102841270180138</v>
+        <v>5.097721288941924</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.033815138331255386</v>
+        <v>0.038660460663119844</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.042797640143784774</v>
+        <v>0.05298986383941985</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3402820769762858</v>
+        <v>0.2371271854360037</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.852945225399903</v>
+        <v>0.7994534822930898</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8618757547813789</v>
+        <v>0.8329269894289215</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9279413190222787</v>
+        <v>0.9232083945921084</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3619437214342006</v>
+        <v>0.29351119697135186</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>6.23985856659136</v>
+        <v>4.9854071976189545</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03181479585282991</v>
+        <v>0.039829259070648576</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.040230385551197095</v>
+        <v>0.05236801486771884</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.319180242909073</v>
+        <v>0.23697070898616404</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.845566700484294</v>
+        <v>0.8096597801541533</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8566545267434492</v>
+        <v>0.8352077255377298</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9324954072726223</v>
+        <v>0.9298827872896602</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.35203224258883464</v>
+        <v>0.2969400454260873</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>5.9761533258204915</v>
+        <v>5.068245633862852</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.033645553058808356</v>
+        <v>0.037475267740104096</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.041225768295393705</v>
+        <v>0.05214079446604014</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.26416004189029646</v>
+        <v>0.23494115078947256</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8333819784524977</v>
+        <v>0.8064769746910653</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8470107046771902</v>
+        <v>0.8380793709900994</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9289333693450014</v>
+        <v>0.9345516298910796</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3348010055510134</v>
+        <v>0.3013452443438383</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>5.536405033371676</v>
+        <v>5.175865336706762</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03631667243491202</v>
+        <v>0.03837374338213981</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.044946767066903405</v>
+        <v>0.052557911658182896</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.26416004189029646</v>
+        <v>0.23571176161702276</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8334641580818005</v>
+        <v>0.7880639983161315</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8454858779712063</v>
+        <v>0.8251184490138092</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9164253578691086</v>
+        <v>0.9304377135896693</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3321960570327625</v>
+        <v>0.2822174910195589</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>5.471900347164707</v>
+        <v>4.718156056832793</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03608869225302641</v>
+        <v>0.042397575056757876</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04144613619246427</v>
+        <v>0.05547109270781852</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.26416004189029646</v>
+        <v>0.22692393516836723</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8411731486364761</v>
+        <v>0.790351683290516</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8537830984337058</v>
+        <v>0.8277947707104437</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9230991760947037</v>
+        <v>0.9177432824335306</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.346760556648392</v>
+        <v>0.28601282517717086</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.839154634572822</v>
+        <v>4.80702458412886</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.034625113204079086</v>
+        <v>0.04172601806480173</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04206462005915369</v>
+        <v>0.05255466906284964</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.26416004189029646</v>
+        <v>0.23571176161702276</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7978870625492135</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8329687069805177</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9242159527359356</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2935733705362276</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.98690210632185</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04027487327406177</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05297083122401626</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.23494115078947256</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>50.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6887151443656828</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7161046533391885</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7069878802706253</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6137613625377912</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.28</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.2460549992775158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.7406553316915894</v>
+        <v>0.3894255316538829</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.7513566190779398</v>
+        <v>0.4802393654953631</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.740389086603888</v>
+        <v>0.4470377122178704</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.6655608117612682</v>
+        <v>0.36625750895868137</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.82</v>
+        <v>0.94</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4097329317198737</v>
+        <v>0.23989793748209523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.737235078325308</v>
+        <v>0.6463523703459372</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7698219639224153</v>
+        <v>0.6739100925172185</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7579826386098423</v>
+        <v>0.6642404704317733</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6862596914046606</v>
+        <v>0.5531809076984798</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9940640146922745</v>
+        <v>1.2460549992775158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.7220861323826585</v>
+        <v>0.711570217498734</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7393668403319218</v>
+        <v>0.7426256012813659</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7214257269470434</v>
+        <v>0.7317590506940809</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6609158631809193</v>
+        <v>0.6188583194219519</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.04</v>
+        <v>3.82</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.1241323184517715</v>
+        <v>1.4097329317198737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.554852595314346</v>
+        <v>0.594151565349548</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5288720928939687</v>
+        <v>0.6072325516130079</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5432023428359991</v>
+        <v>0.6210617930795463</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.44306479867473425</v>
+        <v>0.567828063491726</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4315682851691152</v>
+        <v>0.35050983275386566</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.561895414452591</v>
+        <v>0.6111058529185159</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.534724964250824</v>
+        <v>0.6173697041989172</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5491434479485586</v>
+        <v>0.6347737893482219</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.44411356650600436</v>
+        <v>0.49475597088980905</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.5130722901110973</v>
+        <v>1.4315682851691152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.5439569106363727</v>
+        <v>0.6181607018671778</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.5171797102925583</v>
+        <v>0.6240752810117095</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.46844752519303884</v>
+        <v>0.6425064328783684</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.4359646509754299</v>
+        <v>0.49563090879147514</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.96</v>
+        <v>0.58</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3696416930522153</v>
+        <v>1.5130722901110973</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.522585013571654</v>
+        <v>0.4517489177700381</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4799625686523947</v>
+        <v>0.5105739189631519</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.4375545167668703</v>
+        <v>0.46296103308907555</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.37825017779775455</v>
+        <v>0.4267912691016189</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.26</v>
+        <v>0.92</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.735699588415141</v>
+        <v>0.27404751561786966</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5475810091407068</v>
+        <v>0.568789894151249</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5521256980391828</v>
+        <v>0.5507436172026351</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4961591586865736</v>
+        <v>0.5307576921431647</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.4302678546766811</v>
+        <v>0.4507069645689378</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.74</v>
+        <v>2.96</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4820008537825626</v>
+        <v>1.3696416930522153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6745039682922647</v>
+        <v>0.5487311840720386</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.677582252732439</v>
+        <v>0.5210648701382591</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.6303594650444557</v>
+        <v>0.4858532174707363</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5923304200060535</v>
+        <v>0.3900951713094969</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.46</v>
+        <v>3.26</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.312576528381162</v>
+        <v>1.735699588415141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6736822244492139</v>
+        <v>0.5211594774687542</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6965482657665434</v>
+        <v>0.48293522218965007</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6847569683877386</v>
+        <v>0.42454594617685915</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5936485388639081</v>
+        <v>0.38409551772605965</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.44</v>
+        <v>1.74</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2803060858518902</v>
+        <v>1.4820008537825626</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>50.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5690171935821168</v>
+        <v>0.6719431638598774</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5905075944788385</v>
+        <v>0.6484974394515575</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5644457709932853</v>
+        <v>0.6012697982763954</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.48212482194400214</v>
+        <v>0.5781822155881501</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.46</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.312576528381162</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>50.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6500725611571311</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6156465380554962</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6012226733359346</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5546876675907402</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.44</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2803060858518902</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>50.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5680482823071605</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5502054675788192</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5229466842312841</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4697780667857063</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.2</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1605769149479943</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.06</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.08</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.06</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.02</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.02</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.14</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.46</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.08</v>
+        <v>0.94</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.46</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
         <v>0.3</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.86</v>
+        <v>0.06</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.02</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.86</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,22 +5105,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
+        <v>0.86</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n" s="113">
         <v>0.08</v>
-      </c>
-      <c r="C49" t="n" s="110">
-        <v>0.14</v>
-      </c>
-      <c r="D49" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n" s="112">
-        <v>0.34</v>
-      </c>
-      <c r="F49" t="n" s="113">
-        <v>0.4</v>
       </c>
       <c r="G49" t="n" s="114">
         <v>0.04</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.86</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.02</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.02</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.02</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.08</v>
-      </c>
-      <c r="C50" t="n" s="110">
-        <v>0.08</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.24</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.12</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.06</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.42</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.16</v>
+        <v>0.92</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
+        <v>0.08</v>
+      </c>
+      <c r="C52" t="n" s="110">
         <v>0.14</v>
       </c>
-      <c r="C52" t="n" s="110">
-        <v>0.12</v>
-      </c>
       <c r="D52" t="n" s="111">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="C53" t="n" s="110">
         <v>0.08</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.42</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.32</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.16</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.1</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.3</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.12</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.14</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.12</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.18</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.12</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.08</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.28</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.28</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.24</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.14</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.06</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.36</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.34</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.1</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8886172746646608</v>
+        <v>0.8737252205798098</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8941601912295025</v>
+        <v>0.9871412839743612</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8906884828220123</v>
+        <v>0.9843849852826014</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6786694551690825</v>
+        <v>0.9623910573502</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.448240804822273</v>
+        <v>76.768262243766</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.0249887263582392</v>
+        <v>0.004387940016873894</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.67</v>
+        <v>0.42</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0417802659145448</v>
+        <v>1.0896545043157075</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.705423015377732</v>
+        <v>0.9597110288493838</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8454201680672269</v>
+        <v>0.9906950246866693</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8582233846712102</v>
+        <v>0.9914610776678838</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.808497039577577</v>
+        <v>0.9830667470673894</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.668630925599815</v>
+        <v>0.9830667470673895</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>6.053349367107762</v>
+        <v>116.11079701929852</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.0364545762323779</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.004089842399527934</v>
-      </c>
+        <v>0.0025192336590943386</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7000500470315535</v>
+        <v>0.9830667470673895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.852738299152817</v>
+        <v>0.5935268919562113</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8600156960710081</v>
+        <v>0.9794413714279746</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8128569180173908</v>
+        <v>0.9597110288493838</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6719037410692729</v>
+        <v>0.9597110288493838</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.143658052600372</v>
+        <v>47.64137685529874</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.036249823771183756</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.005136379069900511</v>
-      </c>
+        <v>0.01566822968163219</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7107959837239105</v>
+        <v>0.9597110288493838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8650048559404337</v>
+        <v>0.6075353218210362</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8662785169243871</v>
+        <v>0.9714026252187518</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8253224722786333</v>
+        <v>0.9443953961338274</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6834852060877875</v>
+        <v>0.9443953961338274</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>6.478229952284853</v>
+        <v>33.96824473048196</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.0317343615026684</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.007602815309594374</v>
-      </c>
+        <v>0.01874047632188096</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.7000500470315535</v>
+        <v>0.9443953961338273</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8618269673262771</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.870096171355893</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8305136768289851</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6906579479194545</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.698002517998649</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03200071397906307</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0073734690136878925</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.7157183829832404</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>50.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9650118400803999</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9804041504364869</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9612932633462861</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9563190602940295</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.14</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.35050983275386566</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>50.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8862140200467825</v>
+        <v>0.9942109169975911</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8798491736584817</v>
+        <v>0.98828886253945</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8401543988485074</v>
+        <v>0.9846744304947392</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.785076303874591</v>
+        <v>0.9818527986261275</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.28</v>
+        <v>0.54</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.2460549992775158</v>
+        <v>1.4315682851691152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>50.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.896711239924429</v>
+        <v>0.9962753046133063</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8770316907099723</v>
+        <v>0.9934593031788556</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8340493081352708</v>
+        <v>0.992966602260626</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7836770932510422</v>
+        <v>0.9871844108507317</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.82</v>
+        <v>0.58</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4097329317198737</v>
+        <v>1.5130722901110973</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>50.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8456135929323528</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8670615043328497</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8128639544630992</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7509717589027551</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.54</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9940640146922745</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>50.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8523304860010978</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8608866747424327</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8017848344298152</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7441241681517615</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.04</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.1241323184517715</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.86</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.14</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.86</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.02</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.08</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.02</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.02</v>
+      </c>
+      <c r="F27" t="n" s="228">
+        <v>0.02</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.08</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.3</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.5</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.06</v>
-      </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.06</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.02</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.02</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.14</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.46</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.08</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.34</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.46</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.12</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.04</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.02</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.14</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7980330172110992</v>
+        <v>0.6928896951462323</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8113994288488395</v>
+        <v>0.835476501029167</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6826510507756179</v>
+        <v>0.7781689276669557</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.682651050775618</v>
+        <v>0.6286282594393532</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.30221087824021</v>
+        <v>5.078159085209354</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.054292875825308326</v>
+        <v>0.03966302690729923</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.11</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4260334598358582</v>
+        <v>1.0124172371762146</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.682651050775618</v>
+        <v>0.6437582166195381</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6826510507756182</v>
+        <v>0.7980330172110992</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6826510507756182</v>
+        <v>0.8113994288488395</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.4660124571250551</v>
+        <v>0.6826510507756179</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6826510507756182</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6826510507756182</v>
-      </c>
+        <v>0.682651050775618</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.30221087824021</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.054292875825308326</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6826510507756182</v>
+        <v>0.682651050775618</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4660124571250551</v>
+        <v>0.2940579546735822</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6826510507756182</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4660124571250551</v>
-      </c>
+        <v>0.7175175333042629</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5594755109229033</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5594755109229035</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.5400427208712535</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.05176374398371842</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6826510507756182</v>
+        <v>0.5594755109229034</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.397048960429242</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7832760440199722</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6437582166195384</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6437582166195381</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.6141645739068866</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.05182850676455783</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6437582166195381</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>50.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8956728270627863</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9172379873227062</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7578467879131878</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6826510507756182</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.96</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3696416930522153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>50.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.936404020166097</v>
+        <v>0.7002537903951741</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9172379873227063</v>
+        <v>0.8466608649247842</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7578467879131882</v>
+        <v>0.7164411354014396</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.682651050775618</v>
+        <v>0.6496339531814201</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.92</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.27404751561786966</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>50.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8991481247576011</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8939948848272495</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8242940421288992</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7154820749095964</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.96</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3696416930522153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>50.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9297911636567894</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8616066422131035</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7548215423734113</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6975364877183998</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.26</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.735699588415141</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.08</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.92</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.08</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.14</v>
       </c>
-      <c r="D23" t="n" s="341">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="342">
+      <c r="D26" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="342">
         <v>0.34</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.4</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.08</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.08</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.24</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.12</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.06</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.42</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8810033649434079</v>
+        <v>0.7443415637860082</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8833760316388757</v>
+        <v>0.8792339639717088</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7911132634340743</v>
+        <v>0.8326756668379641</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7911132634340743</v>
+        <v>0.7081846564908058</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.574566738318447</v>
+        <v>7.280473822670941</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.033230601090686915</v>
+        <v>0.02806571730116915</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1551128578133456</v>
+        <v>0.8907689867497084</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7911132634340743</v>
+        <v>0.6915525361575867</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7911132634340744</v>
+        <v>0.8606896551724139</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7911132634340744</v>
+        <v>0.8644162481870803</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6258601955813109</v>
+        <v>0.7612087147311417</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7911132634340744</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7911132634340744</v>
-      </c>
+        <v>0.7612087147311417</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.375515035015509</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.038704740701125</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7911132634340744</v>
+        <v>0.7612087147311416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6258601955813109</v>
+        <v>0.3723196881091617</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7911132634340744</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6258601955813109</v>
-      </c>
+        <v>0.8176542216400438</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6915525361575867</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6915525361575867</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.484086382444064</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.0435720930132555</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7911132634340744</v>
+        <v>0.6915525361575867</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3992696287279367</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8036794407775849</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6717927185836887</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6717927185836887</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>4.09371002181734</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.0482559752015367</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6717927185836887</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>50.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9516186499145939</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9463385396976269</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8417165375039821</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7911132634340745</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.44</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2803060858518902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>50.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9407929389839741</v>
+        <v>0.767835816659324</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9463385396976269</v>
+        <v>0.8777783964794292</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8417165375039821</v>
+        <v>0.7700251280627436</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7911132634340745</v>
+        <v>0.7268777929314034</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.2</v>
+        <v>0.94</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1605769149479943</v>
+        <v>0.23989793748209523</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>50.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9281559779040708</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9036496434377468</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8355980729714843</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7786482904174169</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.28</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.2460549992775158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>50.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9445557418499668</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9109887069748859</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8512357259376219</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7856852766228551</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.82</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.4097329317198737</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.12</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.06</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.94</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.06</v>
+      </c>
+      <c r="C26" t="n" s="455">
         <v>0.08</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.28</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.28</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.24</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.06</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.06</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.02</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.02</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.14</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.34</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.1</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.46</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9906950246866693</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9914610776678838</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9830667470673894</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>116.11079701929852</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0025192336590943386</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.56</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.4660790412191427</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9830667470673895</v>
+      <c r="A6" t="n" s="491">
+        <v>0.7197333333333336</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.7231236394614857</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.566322364333312</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5663223643333117</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.611720401319335</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.07842106105623166</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.1</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2371791482634837</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5663223643333117</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9664202291896585</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9830667470673895</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5663223643333118</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5663223643333118</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.3207210203440727</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5663223643333118</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5663223643333118</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5663223643333118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9664202291896585</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9830667470673895</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9664202291896585</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9830667470673895</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.3207210203440727</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5663223643333118</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.3207210203440727</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5663223643333118</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>50.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9955190877904773</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.995757688161982</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.987290984527117</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9830667470673896</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.54</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4315682851691152</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8993613818286962</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8849639439924407</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6659742429994513</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5663223643333117</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.74</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4820008537825626</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>50.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9959897745310624</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.995757688161982</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.987290984527117</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9830667470673896</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.58</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.5130722901110973</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8696665955208143</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8849639439924408</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6659742429994514</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5663223643333117</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.46</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.312576528381162</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.86</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.02</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.08</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.04</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.32</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.16</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.3</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.12</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.86</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.02</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.02</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.02</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.14</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.12</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.18</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.7197333333333336</v>
+        <v>0.8810033649434079</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.7231236394614857</v>
+        <v>0.8833760316388757</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.566322364333312</v>
+        <v>0.7911132634340743</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5663223643333117</v>
+        <v>0.7911132634340743</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.611720401319335</v>
+        <v>7.574566738318447</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.07842106105623166</v>
+        <v>0.033230601090686915</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2371791482634837</v>
+        <v>1.1551128578133456</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5663223643333117</v>
+        <v>0.7911132634340743</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.3207210203440727</v>
+        <v>0.6258601955813109</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.3207210203440727</v>
+        <v>0.6258601955813109</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.3207210203440727</v>
+        <v>0.6258601955813109</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5663223643333118</v>
+        <v>0.7911132634340744</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>50.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8993613818286962</v>
+        <v>0.9516186499145939</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8849639439924407</v>
+        <v>0.9463385396976269</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6659742429994513</v>
+        <v>0.8417165375039821</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5663223643333117</v>
+        <v>0.7911132634340745</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4820008537825626</v>
+        <v>1.2803060858518902</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>50.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8696665955208143</v>
+        <v>0.9407929389839741</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8849639439924408</v>
+        <v>0.9463385396976269</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6659742429994514</v>
+        <v>0.8417165375039821</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5663223643333117</v>
+        <v>0.7911132634340745</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.312576528381162</v>
+        <v>1.1605769149479943</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
         <v>0.14</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.856965055983009</v>
+        <v>0.8126761790104916</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8661863304665084</v>
+        <v>0.8386631584655327</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9351052700465917</v>
+        <v>0.9308211164313775</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3929489100861654</v>
+        <v>0.3420278790139459</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>6.473078075552767</v>
+        <v>5.198212327011273</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.031515230611915884</v>
+        <v>0.0382249387073732</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.464</v>
+        <v>1.814</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8630179604156568</v>
+        <v>0.7464227614264655</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.36787386630281577</v>
+        <v>0.2585480118135443</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8312436328092734</v>
+        <v>0.807643522110163</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8418449078742543</v>
+        <v>0.8235502730516696</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.9190474014204298</v>
+        <v>0.9171489615361244</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.371635956444499</v>
+        <v>0.3414956953970093</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>5.3229073851439495</v>
+        <v>4.6673366249687005</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.03759492850880066</v>
+        <v>0.040583720941880945</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04440336312134228</v>
+        <v>0.05173122762074284</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.3540718759551988</v>
+        <v>0.2760230478845232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8334563397507538</v>
+        <v>0.7972168508287293</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8446901940522592</v>
+        <v>0.8230124822944145</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9181687113146347</v>
+        <v>0.9133476893508532</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.376677062365122</v>
+        <v>0.3406649422745297</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>5.438743477256572</v>
+        <v>4.650115968423694</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.03725099488628309</v>
+        <v>0.03952897315972082</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04468741196688624</v>
+        <v>0.05042995731595499</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.368232861437098</v>
+        <v>0.2760161725446725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8338588119137733</v>
+        <v>0.7982411425792211</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8397391680706598</v>
+        <v>0.82216925263358</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9188577766901639</v>
+        <v>0.912709600224773</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.36796988671348024</v>
+        <v>0.3393683021719263</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>5.239827835418354</v>
+        <v>4.623324508328706</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.03686360951057582</v>
+        <v>0.03915986454625254</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0444176882552899</v>
+        <v>0.05054657350113297</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.3441404288443719</v>
+        <v>0.2760230478845232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8388100724160632</v>
+        <v>0.8156080572289157</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8481745127138575</v>
+        <v>0.8366728407633375</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9236449894867345</v>
+        <v>0.926564026539912</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3829915197788201</v>
+        <v>0.3627272067338383</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.5865094054683935</v>
+        <v>5.122680420535517</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.03589805659673082</v>
+        <v>0.03961152164344246</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.044575172093241085</v>
+        <v>0.06395865113197845</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.3540718759551988</v>
+        <v>0.2681643935098361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8382618243243244</v>
+        <v>0.776920650464685</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8483499229868059</v>
+        <v>0.8082981728180828</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.913610497653793</v>
+        <v>0.9141446888060831</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.38331361233741224</v>
+        <v>0.3190296453333166</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>5.594127874481701</v>
+        <v>4.216434369459823</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.035788117187503764</v>
+        <v>0.045742947472391965</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.046720128322441906</v>
+        <v>0.06954653997839191</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.3441404288443719</v>
+        <v>0.24607364791606925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8490693356134663</v>
+        <v>0.7812199646303487</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8598630449263097</v>
+        <v>0.8108307156533215</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9225383755599774</v>
+        <v>0.9176623381831377</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.4053862675835425</v>
+        <v>0.3226090025555255</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>6.135876467946338</v>
+        <v>4.286270461156707</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.03372187109144519</v>
+        <v>0.04497176090352903</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.045329651487479895</v>
+        <v>0.06981757200462776</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.4018312618407765</v>
+        <v>0.24594838416384032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8564700146270112</v>
+        <v>0.8107834821428571</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8674366594901778</v>
+        <v>0.8386109714710299</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.9033268171012424</v>
+        <v>0.9322360403315797</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.42098220275310205</v>
+        <v>0.36602788861122476</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>6.543563674196228</v>
+        <v>5.196208063923597</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.030827480846087624</v>
+        <v>0.03819432305222185</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03267547724004491</v>
+        <v>0.06752176337050354</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.40777301246113284</v>
+        <v>0.25851829349313193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8576699706000356</v>
+        <v>0.7830861687776361</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8668905894728062</v>
+        <v>0.8188768120640297</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.9040974249960474</v>
+        <v>0.9261956793233552</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.4198270937226601</v>
+        <v>0.33437389110626153</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>6.512616846843468</v>
+        <v>4.52110423516571</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.03044246414692601</v>
+        <v>0.044523860311289534</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.033610575875006175</v>
+        <v>0.07597772689012726</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.40777301246113284</v>
+        <v>0.2546767906050883</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8556001975959163</v>
+        <v>0.7850057856977553</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8631191356514355</v>
+        <v>0.8225053607426303</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9344098297717711</v>
+        <v>0.9083851379672575</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.41198081511151396</v>
+        <v>0.33988427148737954</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>6.305623066884784</v>
+        <v>4.633972970586374</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.03219601938727789</v>
+        <v>0.04376099781922537</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04361895367477773</v>
+        <v>0.07025945505223051</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.3540718759551988</v>
+        <v>0.25851829349313193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8393742936610521</v>
+        <v>0.7970285998898996</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8512638834269015</v>
+        <v>0.8314796423703681</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9301742211339594</v>
+        <v>0.9179188619144221</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3887246840515015</v>
+        <v>0.3540979444684469</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.723316589407764</v>
+        <v>4.934001173898322</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.035895310811654965</v>
+        <v>0.04140573358387927</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.051096353565241365</v>
+        <v>0.06935761918718561</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.3540718759551988</v>
+        <v>0.25851829349313193</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7781675183675685</v>
+        <v>0.6163903988923402</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7874541780638074</v>
+        <v>0.6416118868863715</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7704301883711682</v>
+        <v>0.6532214185567075</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.710308915522398</v>
+        <v>0.5859804918828632</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.28</v>
+        <v>0.14</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.2460549992775158</v>
+        <v>0.35050983275386566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.7561232826320319</v>
+        <v>0.6287719912202019</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.7605099378273233</v>
+        <v>0.6462950308885314</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.7427302601266507</v>
+        <v>0.6649606798883295</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.6713313740707711</v>
+        <v>0.48990965799019565</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.82</v>
+        <v>0.54</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.4097329317198737</v>
+        <v>1.4315682851691152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.7843592536827346</v>
+        <v>0.6359573595665919</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.8070489783143175</v>
+        <v>0.6536044855931273</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7909532434333081</v>
+        <v>0.6736720449573588</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.7333777323324533</v>
+        <v>0.4895337773955181</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.54</v>
+        <v>0.58</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9940640146922745</v>
+        <v>1.5130722901110973</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.7083298841646904</v>
+        <v>0.4378747395739814</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.7267597528090516</v>
+        <v>0.5219250361441518</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.698127194022863</v>
+        <v>0.47716221228607064</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.6335886223008165</v>
+        <v>0.4113499117456934</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.04</v>
+        <v>0.94</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.1241323184517715</v>
+        <v>0.23989793748209523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.7109527742151561</v>
+        <v>0.7483196567181567</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.7250381981712916</v>
+        <v>0.7682581127759144</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.70927272081799</v>
+        <v>0.750919593048325</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.624700989096359</v>
+        <v>0.6591219310902668</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.44</v>
+        <v>3.28</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2803060858518902</v>
+        <v>1.2460549992775158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5921145978297228</v>
+        <v>0.7239251291630968</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6070619177730159</v>
+        <v>0.7480804632995685</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5748936445567441</v>
+        <v>0.7243957613678551</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4938170914757026</v>
+        <v>0.6128607582517528</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.2</v>
+        <v>3.82</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1605769149479943</v>
+        <v>1.4097329317198737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5562127375716935</v>
+        <v>0.5512901757556237</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.523703101168482</v>
+        <v>0.5033183428692813</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5369144813048777</v>
+        <v>0.43026890167792686</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.4251333288985063</v>
+        <v>0.3894192221174975</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.54</v>
+        <v>1.74</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4315682851691152</v>
+        <v>1.4820008537825626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5633228776933821</v>
+        <v>0.7077701195567734</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5298770510329823</v>
+        <v>0.6817591149211207</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5431855999005063</v>
+        <v>0.622400359282574</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.42506336570825637</v>
+        <v>0.6015108443335055</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.58</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.5130722901110973</v>
+        <v>1.312576528381162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5749419544522891</v>
+        <v>0.6938757029672745</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5718146772582572</v>
+        <v>0.6506958493935412</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.5065061226064698</v>
+        <v>0.630029432143396</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.44205072311704174</v>
+        <v>0.587174879696908</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4820008537825626</v>
+        <v>1.2803060858518902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>50.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.7013285903098605</v>
+        <v>0.5974400974418083</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6961165253286689</v>
+        <v>0.5705701471015533</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.6401598422409148</v>
+        <v>0.5342373771927704</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.6103389783603128</v>
+        <v>0.4826752680143431</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.312576528381162</v>
+        <v>1.1605769149479943</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="C40" t="n" s="798">
         <v>0.02</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.86</v>
       </c>
       <c r="C41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="799">
+        <v>0.02</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.02</v>
+      </c>
+      <c r="F41" t="n" s="801">
+        <v>0.02</v>
+      </c>
+      <c r="G41" t="n" s="802">
         <v>0.08</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.34</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.46</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.12</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.04</v>
+        <v>0.94</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="C43" t="n" s="798">
         <v>0.08</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.28</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.06</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.02</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.02</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.3</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.14</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.06</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.36</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.34</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.1</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.86</v>
+        <v>0.32</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.86</v>
+        <v>0.14</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
         <v>0.14</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
